--- a/py_process/output/posthoc.xlsx
+++ b/py_process/output/posthoc.xlsx
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="26680" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="26680" windowHeight="12820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Age" sheetId="2" r:id="rId1"/>
+    <sheet name="Size" sheetId="3" r:id="rId2"/>
+    <sheet name="TimeofDay" sheetId="4" r:id="rId3"/>
+    <sheet name="WeekDay" sheetId="1" r:id="rId4"/>
+    <sheet name="PureMixedHybrid" sheetId="5" r:id="rId5"/>
+    <sheet name="Group" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="37">
   <si>
     <t>Group</t>
   </si>
@@ -60,6 +65,81 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>lateday</t>
+  </si>
+  <si>
+    <t>midday</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Herding</t>
+  </si>
+  <si>
+    <t>Hound</t>
+  </si>
+  <si>
+    <t>NonSporting</t>
+  </si>
+  <si>
+    <t>PitBull</t>
+  </si>
+  <si>
+    <t>Sporting</t>
+  </si>
+  <si>
+    <t>Terrier</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -121,10 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +484,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.2878</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.4138</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1628</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-4.5400000000000003E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-8.8599999999999998E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-8.9499999999999996E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.16009999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-1.89E-2</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-4.41E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.111</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.2046</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.2487</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.4214</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.6069</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6472</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.1555</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.5151</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.64590000000000003</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.7631</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-0.52869999999999995</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-9.1800000000000007E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-0.16839999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1.52E-2</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,4 +1343,857 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.1489</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1019</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.43440000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.2437</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.1101</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1928</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.1305</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-1.35E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-0.29260000000000003</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2452</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1668</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.1096</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-6.9900000000000004E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-0.106</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-9.0399999999999994E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-0.37619999999999998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.1953</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-4.2099999999999999E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1862</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-6.8500000000000005E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-0.1336</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-0.248</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-0.1555</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-0.2828</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-2.81E-2</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-3.5200000000000002E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-0.1462</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-0.25719999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-0.54730000000000001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-9.4700000000000006E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.21920000000000001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-0.17979999999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-0.2641</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-9.5600000000000004E-2</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-0.2016</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-0.3029</v>
+      </c>
+      <c r="E24" s="4">
+        <v>-0.1004</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-8.14E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-0.161</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-0.3034</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="E26" s="4">
+        <v>-2.3900000000000001E-2</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-0.1409</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-0.2384</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-4.3400000000000001E-2</v>
+      </c>
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-0.1226</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F28" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-0.1236</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-5.8200000000000002E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.1203</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="F32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-0.1018</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-0.38679999999999998</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.1832</v>
+      </c>
+      <c r="F33" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-5.1400000000000001E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.1729</v>
+      </c>
+      <c r="F34" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-0.22209999999999999</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-0.50009999999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F35" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-5.96E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-0.1527</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-0.1211</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="F37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>